--- a/xls/work_classification_analysis.xlsx
+++ b/xls/work_classification_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\American_Literature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfoasberg\Desktop\ProjectTRIKE\Son_of_Am_Lit\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -401,7 +401,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="J3">
-        <f>SUM(G3:I3)</f>
+        <f t="shared" ref="J3:J13" si="0">SUM(G3:I3)</f>
         <v>2</v>
       </c>
     </row>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUM(G4:I4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <f>SUM(G5:I5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <f>SUM(G6:I6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -551,7 +551,7 @@
         <v>4</v>
       </c>
       <c r="J7">
-        <f>SUM(G7:I7)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <f>SUM(G8:I8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <f>SUM(G9:I9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -623,7 +623,7 @@
         <v>5</v>
       </c>
       <c r="J10">
-        <f>SUM(G10:I10)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="J11">
-        <f>SUM(G11:I11)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <f>SUM(G12:I12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <f>SUM(G13:I13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -717,6 +717,10 @@
       <c r="I14">
         <f>SUM(I3:I13)</f>
         <v>18</v>
+      </c>
+      <c r="J14">
+        <f>SUM(J3:J13)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">

--- a/xls/work_classification_analysis.xlsx
+++ b/xls/work_classification_analysis.xlsx
@@ -401,7 +401,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
